--- a/2 Python Listings/Listings Output/Listing1.xlsx
+++ b/2 Python Listings/Listings Output/Listing1.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27, 00:39</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
